--- a/Textbook Companion/Chapter43/Practice Files/Monthtomonth.xlsx
+++ b/Textbook Companion/Chapter43/Practice Files/Monthtomonth.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Microsoft Press\Ch43\Companion Content\Practice Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Essential-Statistics-for-Data-Analysis-using-Excel\Textbook Companion\Chapter43\Practice Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="72" windowWidth="14352" windowHeight="7992" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic PT" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="135" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="winston" refreshedDate="40791.71596134259" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="91">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="winston" refreshedDate="40791.71596134259" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="91" xr:uid="{00000000-000A-0000-FFFF-FFFF87000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="F5:H96" sheet="data"/>
   </cacheSource>
@@ -660,7 +660,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="135" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -759,12 +759,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="135" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -863,12 +866,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="135" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -967,12 +973,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="135" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -1070,6 +1079,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -1151,6 +1163,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1186,6 +1215,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1361,7 +1407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1371,15 +1417,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1387,7 +1433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1404,7 +1450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1421,7 +1467,7 @@
         <v>140126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1438,7 +1484,7 @@
         <v>155835</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1455,7 +1501,7 @@
         <v>174636</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1472,7 +1518,7 @@
         <v>169293</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1489,7 +1535,7 @@
         <v>144100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1506,7 +1552,7 @@
         <v>158500</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1523,7 +1569,7 @@
         <v>161309</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1540,7 +1586,7 @@
         <v>131935</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1557,7 +1603,7 @@
         <v>155357</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1574,7 +1620,7 @@
         <v>152655</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1591,7 +1637,7 @@
         <v>137819</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -1608,7 +1654,7 @@
         <v>183157</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1633,25 +1679,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1659,7 +1705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1676,7 +1722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1689,7 +1735,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1702,7 +1748,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1715,7 +1761,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1728,7 +1774,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1741,7 +1787,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1754,7 +1800,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1767,7 +1813,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1780,7 +1826,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1793,7 +1839,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1806,7 +1852,7 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1819,7 +1865,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -1832,7 +1878,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1853,25 +1899,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1879,7 +1925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1896,7 +1942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1913,7 +1959,7 @@
         <v>140126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1930,7 +1976,7 @@
         <v>295961</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1947,7 +1993,7 @@
         <v>470597</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1964,7 +2010,7 @@
         <v>639890</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1981,7 +2027,7 @@
         <v>783990</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1998,7 +2044,7 @@
         <v>942490</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -2015,7 +2061,7 @@
         <v>1103799</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -2032,7 +2078,7 @@
         <v>1235734</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -2049,7 +2095,7 @@
         <v>1391091</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -2066,7 +2112,7 @@
         <v>1543746</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -2083,7 +2129,7 @@
         <v>1681565</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -2100,7 +2146,7 @@
         <v>1864722</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -2117,22 +2163,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2140,7 +2186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2157,7 +2203,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2174,7 +2220,7 @@
         <v>140126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,7 +2237,7 @@
         <v>155835</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -2208,7 +2254,7 @@
         <v>174636</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2225,7 +2271,7 @@
         <v>169293</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -2242,7 +2288,7 @@
         <v>144100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -2259,7 +2305,7 @@
         <v>158500</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -2276,7 +2322,7 @@
         <v>161309</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -2293,7 +2339,7 @@
         <v>131935</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -2310,7 +2356,7 @@
         <v>155357</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -2327,7 +2373,7 @@
         <v>152655</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -2344,7 +2390,7 @@
         <v>137819</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -2361,7 +2407,7 @@
         <v>183157</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -2384,19 +2430,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="F5:H96"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>0</v>
       </c>
@@ -2407,7 +2453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>2009</v>
       </c>
@@ -2418,7 +2464,7 @@
         <v>10453</v>
       </c>
     </row>
-    <row r="7" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F7">
         <v>2009</v>
       </c>
@@ -2429,7 +2475,7 @@
         <v>10419</v>
       </c>
     </row>
-    <row r="8" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>2009</v>
       </c>
@@ -2440,7 +2486,7 @@
         <v>21317</v>
       </c>
     </row>
-    <row r="9" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>2009</v>
       </c>
@@ -2451,7 +2497,7 @@
         <v>12003</v>
       </c>
     </row>
-    <row r="10" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>2009</v>
       </c>
@@ -2462,7 +2508,7 @@
         <v>26072</v>
       </c>
     </row>
-    <row r="11" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>2009</v>
       </c>
@@ -2473,7 +2519,7 @@
         <v>19578</v>
       </c>
     </row>
-    <row r="12" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>2009</v>
       </c>
@@ -2484,7 +2530,7 @@
         <v>10623</v>
       </c>
     </row>
-    <row r="13" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>2009</v>
       </c>
@@ -2495,7 +2541,7 @@
         <v>21866</v>
       </c>
     </row>
-    <row r="14" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>2009</v>
       </c>
@@ -2506,7 +2552,7 @@
         <v>17740</v>
       </c>
     </row>
-    <row r="15" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>2009</v>
       </c>
@@ -2517,7 +2563,7 @@
         <v>31912</v>
       </c>
     </row>
-    <row r="16" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>2009</v>
       </c>
@@ -2528,7 +2574,7 @@
         <v>14704</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F17">
         <v>2009</v>
       </c>
@@ -2539,7 +2585,7 @@
         <v>30043</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>2010</v>
       </c>
@@ -2550,7 +2596,7 @@
         <v>9750</v>
       </c>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>2010</v>
       </c>
@@ -2561,7 +2607,7 @@
         <v>14089</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F20">
         <v>2010</v>
       </c>
@@ -2572,7 +2618,7 @@
         <v>28026</v>
       </c>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>2010</v>
       </c>
@@ -2583,7 +2629,7 @@
         <v>19863</v>
       </c>
     </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F22">
         <v>2010</v>
       </c>
@@ -2594,7 +2640,7 @@
         <v>12410</v>
       </c>
     </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>2010</v>
       </c>
@@ -2605,7 +2651,7 @@
         <v>12717</v>
       </c>
     </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>2010</v>
       </c>
@@ -2616,7 +2662,7 @@
         <v>21899</v>
       </c>
     </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F25">
         <v>2010</v>
       </c>
@@ -2627,7 +2673,7 @@
         <v>12725</v>
       </c>
     </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F26">
         <v>2010</v>
       </c>
@@ -2638,7 +2684,7 @@
         <v>26815</v>
       </c>
     </row>
-    <row r="27" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F27">
         <v>2010</v>
       </c>
@@ -2649,7 +2695,7 @@
         <v>10756</v>
       </c>
     </row>
-    <row r="28" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>2010</v>
       </c>
@@ -2660,7 +2706,7 @@
         <v>17010</v>
       </c>
     </row>
-    <row r="29" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F29">
         <v>2010</v>
       </c>
@@ -2671,7 +2717,7 @@
         <v>22442</v>
       </c>
     </row>
-    <row r="30" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F30">
         <v>2011</v>
       </c>
@@ -2682,7 +2728,7 @@
         <v>21049</v>
       </c>
     </row>
-    <row r="31" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F31">
         <v>2011</v>
       </c>
@@ -2693,7 +2739,7 @@
         <v>8342</v>
       </c>
     </row>
-    <row r="32" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F32">
         <v>2011</v>
       </c>
@@ -2704,7 +2750,7 @@
         <v>19821</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F33">
         <v>2011</v>
       </c>
@@ -2715,7 +2761,7 @@
         <v>23071</v>
       </c>
     </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F34">
         <v>2011</v>
       </c>
@@ -2726,7 +2772,7 @@
         <v>17653</v>
       </c>
     </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F35">
         <v>2011</v>
       </c>
@@ -2737,7 +2783,7 @@
         <v>31116</v>
       </c>
     </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F36">
         <v>2011</v>
       </c>
@@ -2748,7 +2794,7 @@
         <v>29528</v>
       </c>
     </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F37">
         <v>2011</v>
       </c>
@@ -2759,7 +2805,7 @@
         <v>14376</v>
       </c>
     </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F38">
         <v>2011</v>
       </c>
@@ -2770,7 +2816,7 @@
         <v>29379</v>
       </c>
     </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F39">
         <v>2011</v>
       </c>
@@ -2781,7 +2827,7 @@
         <v>18675</v>
       </c>
     </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F40">
         <v>2011</v>
       </c>
@@ -2792,7 +2838,7 @@
         <v>9141</v>
       </c>
     </row>
-    <row r="41" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F41">
         <v>2011</v>
       </c>
@@ -2803,7 +2849,7 @@
         <v>18936</v>
       </c>
     </row>
-    <row r="42" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F42">
         <v>2010</v>
       </c>
@@ -2814,7 +2860,7 @@
         <v>16398</v>
       </c>
     </row>
-    <row r="43" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F43">
         <v>2010</v>
       </c>
@@ -2825,7 +2871,7 @@
         <v>29885</v>
       </c>
     </row>
-    <row r="44" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F44">
         <v>2009</v>
       </c>
@@ -2836,7 +2882,7 @@
         <v>29962</v>
       </c>
     </row>
-    <row r="45" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F45">
         <v>2010</v>
       </c>
@@ -2847,7 +2893,7 @@
         <v>8688</v>
       </c>
     </row>
-    <row r="46" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F46">
         <v>2009</v>
       </c>
@@ -2858,7 +2904,7 @@
         <v>8098</v>
       </c>
     </row>
-    <row r="47" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F47">
         <v>2009</v>
       </c>
@@ -2869,7 +2915,7 @@
         <v>19296</v>
       </c>
     </row>
-    <row r="48" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F48">
         <v>2010</v>
       </c>
@@ -2880,7 +2926,7 @@
         <v>29374</v>
       </c>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F49">
         <v>2009</v>
       </c>
@@ -2891,7 +2937,7 @@
         <v>29722</v>
       </c>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F50">
         <v>2011</v>
       </c>
@@ -2902,7 +2948,7 @@
         <v>16180</v>
       </c>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F51">
         <v>2010</v>
       </c>
@@ -2913,7 +2959,7 @@
         <v>25487</v>
       </c>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F52">
         <v>2011</v>
       </c>
@@ -2924,7 +2970,7 @@
         <v>23124</v>
       </c>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F53">
         <v>2010</v>
       </c>
@@ -2935,7 +2981,7 @@
         <v>28043</v>
       </c>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F54">
         <v>2010</v>
       </c>
@@ -2946,7 +2992,7 @@
         <v>28477</v>
       </c>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F55">
         <v>2010</v>
       </c>
@@ -2957,7 +3003,7 @@
         <v>30922</v>
       </c>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F56">
         <v>2009</v>
       </c>
@@ -2968,7 +3014,7 @@
         <v>8490</v>
       </c>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F57">
         <v>2011</v>
       </c>
@@ -2979,7 +3025,7 @@
         <v>16699</v>
       </c>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F58">
         <v>2010</v>
       </c>
@@ -2990,7 +3036,7 @@
         <v>22180</v>
       </c>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F59">
         <v>2010</v>
       </c>
@@ -3001,7 +3047,7 @@
         <v>14245</v>
       </c>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F60">
         <v>2010</v>
       </c>
@@ -3012,7 +3058,7 @@
         <v>24885</v>
       </c>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F61">
         <v>2010</v>
       </c>
@@ -3023,7 +3069,7 @@
         <v>20335</v>
       </c>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F62">
         <v>2009</v>
       </c>
@@ -3034,7 +3080,7 @@
         <v>20273</v>
       </c>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F63">
         <v>2009</v>
       </c>
@@ -3045,7 +3091,7 @@
         <v>22214</v>
       </c>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F64">
         <v>2009</v>
       </c>
@@ -3056,7 +3102,7 @@
         <v>27146</v>
       </c>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F65">
         <v>2010</v>
       </c>
@@ -3067,7 +3113,7 @@
         <v>22896</v>
       </c>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F66">
         <v>2010</v>
       </c>
@@ -3078,7 +3124,7 @@
         <v>19337</v>
       </c>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F67">
         <v>2009</v>
       </c>
@@ -3089,7 +3135,7 @@
         <v>19403</v>
       </c>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F68">
         <v>2010</v>
       </c>
@@ -3100,7 +3146,7 @@
         <v>13663</v>
       </c>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F69">
         <v>2009</v>
       </c>
@@ -3111,7 +3157,7 @@
         <v>27896</v>
       </c>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F70">
         <v>2009</v>
       </c>
@@ -3122,7 +3168,7 @@
         <v>30985</v>
       </c>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F71">
         <v>2009</v>
       </c>
@@ -3133,7 +3179,7 @@
         <v>15940</v>
       </c>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F72">
         <v>2011</v>
       </c>
@@ -3144,7 +3190,7 @@
         <v>9335</v>
       </c>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F73">
         <v>2011</v>
       </c>
@@ -3155,7 +3201,7 @@
         <v>24549</v>
       </c>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F74">
         <v>2010</v>
       </c>
@@ -3166,7 +3212,7 @@
         <v>22148</v>
       </c>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F75">
         <v>2009</v>
       </c>
@@ -3177,7 +3223,7 @@
         <v>31481</v>
       </c>
     </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F76">
         <v>2011</v>
       </c>
@@ -3188,7 +3234,7 @@
         <v>15942</v>
       </c>
     </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F77">
         <v>2011</v>
       </c>
@@ -3199,7 +3245,7 @@
         <v>30821</v>
       </c>
     </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F78">
         <v>2011</v>
       </c>
@@ -3210,7 +3256,7 @@
         <v>24566</v>
       </c>
     </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F79">
         <v>2009</v>
       </c>
@@ -3221,7 +3267,7 @@
         <v>18174</v>
       </c>
     </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F80">
         <v>2009</v>
       </c>
@@ -3232,7 +3278,7 @@
         <v>25515</v>
       </c>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F81">
         <v>2009</v>
       </c>
@@ -3243,7 +3289,7 @@
         <v>29714</v>
       </c>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F82">
         <v>2010</v>
       </c>
@@ -3254,7 +3300,7 @@
         <v>14755</v>
       </c>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F83">
         <v>2010</v>
       </c>
@@ -3265,7 +3311,7 @@
         <v>15393</v>
       </c>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F84">
         <v>2010</v>
       </c>
@@ -3276,7 +3322,7 @@
         <v>11358</v>
       </c>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F85">
         <v>2011</v>
       </c>
@@ -3287,7 +3333,7 @@
         <v>8362</v>
       </c>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F86">
         <v>2009</v>
       </c>
@@ -3298,7 +3344,7 @@
         <v>22822</v>
       </c>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F87">
         <v>2011</v>
       </c>
@@ -3309,7 +3355,7 @@
         <v>12130</v>
       </c>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F88">
         <v>2009</v>
       </c>
@@ -3320,7 +3366,7 @@
         <v>30752</v>
       </c>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F89">
         <v>2011</v>
       </c>
@@ -3331,7 +3377,7 @@
         <v>29976</v>
       </c>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F90">
         <v>2010</v>
       </c>
@@ -3342,7 +3388,7 @@
         <v>10096</v>
       </c>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F91">
         <v>2011</v>
       </c>
@@ -3353,7 +3399,7 @@
         <v>24601</v>
       </c>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F92">
         <v>2009</v>
       </c>
@@ -3364,7 +3410,7 @@
         <v>27842</v>
       </c>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F93">
         <v>2010</v>
       </c>
@@ -3375,7 +3421,7 @@
         <v>31359</v>
       </c>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F94">
         <v>2011</v>
       </c>
@@ -3386,7 +3432,7 @@
         <v>11947</v>
       </c>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F95">
         <v>2011</v>
       </c>
@@ -3397,7 +3443,7 @@
         <v>30215</v>
       </c>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F96">
         <v>2009</v>
       </c>
@@ -3414,24 +3460,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
